--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144922.8241545052</v>
+        <v>-124939.667517491</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17297070.25717502</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8782006.920242367</v>
+        <v>8826988.931125989</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>130.5979346314045</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.184812400121125</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -823,10 +823,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>100.176219543324</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>96.80482503519332</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>267.7357237463023</v>
+        <v>45.10878876340973</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,16 +1057,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>79.8959740157257</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>181.1449619021819</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>94.85775432290998</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.0299277663651</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>261.8932711970668</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>12.7901879550222</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225797</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>129.5445345985672</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948852</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>35.51678257079499</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>102.6974459740354</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.550686977301</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>214.3693806674597</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849750167</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>199.5895679887585</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>103.828474294596</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647611</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170448</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225763</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.5835062384834</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3079795468357</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.0976184357247</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>428.9839288517125</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1356867533091</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9307845213935</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.7857844696406</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36228653642613</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4134863141165</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.177011114578</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5377120239365</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3538315015018</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.4979702449072</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7501939217678</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.447363990222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3830258600321</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.7661443289173</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6073551701949</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4869149562861</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.4822936828554</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>27.04601967194327</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>242.967583415754</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.1956021978505</v>
+        <v>272.5018050100011</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6328845066986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8530718279961</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.4847685783464</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.6924054374576</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.5835062384834</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3079795468357</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.0976184357247</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>428.9839288517125</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1356867533091</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9307845213935</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7857844696406</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.36228653642613</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4134863141165</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.177011114578</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5377120239365</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3538315015018</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.4979702449072</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7501939217678</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.447363990222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.3830258600321</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.7661443289173</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6073551701949</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.4869149562861</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.4822936828554</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.04601967194381</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>242.967583415754</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1956021978505</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6328845066986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8530718279961</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.4847685783464</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6924054374576</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.5835062384834</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3079795468357</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.0976184357247</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>428.9839288517125</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1356867533091</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9307845213935</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7857844696406</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.36228653642613</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4134863141165</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.177011114578</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5377120239365</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3538315015018</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.4979702449072</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7501939217678</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.447363990222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.3830258600321</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.7661443289173</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6073551701949</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.4869149562861</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4822936828554</v>
+        <v>24.34318456170493</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.1958864734081</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>242.967583415754</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>145.0457353963864</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6328845066986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8530718279961</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.4847685783464</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.6924054374576</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1243.268593282432</v>
+        <v>1375.729255344607</v>
       </c>
       <c r="C2" t="n">
-        <v>1209.16652450626</v>
+        <v>1341.627186568435</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.297143721108</v>
+        <v>905.717401742879</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>471.9426569011742</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>448.115631350786</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>46.71779997404987</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.71779997404987</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404987</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269677</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311975</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311975</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311975</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311975</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311975</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990842</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949436</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702493</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702493</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702493</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702493</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702493</v>
       </c>
       <c r="W2" t="n">
-        <v>1688.915942807568</v>
+        <v>1931.034544113527</v>
       </c>
       <c r="X2" t="n">
-        <v>1269.773479386879</v>
+        <v>1511.892080692837</v>
       </c>
       <c r="Y2" t="n">
-        <v>1265.527759726936</v>
+        <v>1507.646361032895</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1178.821982214977</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1072.36552105162</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>977.2752321981729</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>883.1548175251266</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>799.7709791412883</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>714.3858894074722</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>672.6502372236846</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>698.7139103841422</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1023.272235350355</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1601.405010029222</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976078</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976078</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976078</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976078</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2218.717220608154</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702493</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2272.434561150877</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2142.255917481478</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1965.919370481447</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1766.801852543446</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1581.47909827664</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1426.61166251552</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1300.125883294741</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.5714734656729</v>
+        <v>652.6981595892653</v>
       </c>
       <c r="C4" t="n">
-        <v>301.0097619488978</v>
+        <v>480.1364480724902</v>
       </c>
       <c r="D4" t="n">
-        <v>135.1317691504205</v>
+        <v>314.2584552740129</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>144.5004515247502</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404987</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404987</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404987</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404987</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>80.56852853551901</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>80.56852853551901</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>498.7784103034801</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>958.2622774843931</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1400.521080642038</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1820.190329867819</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2167.697223838161</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702493</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407865</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2155.230808705862</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1909.351362284317</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1630.918361537422</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1343.962853407853</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>1071.936448994144</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705518</v>
+        <v>1071.936448994144</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.39009218466</v>
+        <v>844.5167783082525</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>450.4214956153326</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.7035002010737</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C7" t="n">
-        <v>598.1417886842986</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>432.2637958858213</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1270.644793662241</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>1189.941789605953</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>962.5221189200608</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>949.4537989923044</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>530.3113355716151</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1758.165314945667</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2080.193069537757</v>
+        <v>2078.516374329479</v>
       </c>
       <c r="C11" t="n">
-        <v>1642.050596721181</v>
+        <v>1640.373901512902</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.140811895625</v>
+        <v>1204.464116687347</v>
       </c>
       <c r="E11" t="n">
-        <v>772.3660670539202</v>
+        <v>770.6893718456416</v>
       </c>
       <c r="F11" t="n">
-        <v>344.498637463128</v>
+        <v>770.6893718456416</v>
       </c>
       <c r="G11" t="n">
-        <v>79.95997968831301</v>
+        <v>369.2915404689056</v>
       </c>
       <c r="H11" t="n">
-        <v>79.95997968831301</v>
+        <v>80.16138591212182</v>
       </c>
       <c r="I11" t="n">
-        <v>79.95997968831301</v>
+        <v>80.16138591212182</v>
       </c>
       <c r="J11" t="n">
-        <v>79.95997968831301</v>
+        <v>515.4160733650397</v>
       </c>
       <c r="K11" t="n">
-        <v>79.95997968831301</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.464728331187</v>
+        <v>2341.763515985725</v>
       </c>
       <c r="M11" t="n">
-        <v>2058.969476974059</v>
+        <v>2464.106570061042</v>
       </c>
       <c r="N11" t="n">
-        <v>3048.474225616933</v>
+        <v>2464.106570061042</v>
       </c>
       <c r="O11" t="n">
-        <v>3997.998984415651</v>
+        <v>2464.106570061042</v>
       </c>
       <c r="P11" t="n">
-        <v>3997.998984415651</v>
+        <v>3292.416444894439</v>
       </c>
       <c r="Q11" t="n">
-        <v>3997.998984415651</v>
+        <v>3838.915230853034</v>
       </c>
       <c r="R11" t="n">
-        <v>3997.998984415651</v>
+        <v>4008.069295606091</v>
       </c>
       <c r="S11" t="n">
-        <v>3997.998984415651</v>
+        <v>3924.417421789928</v>
       </c>
       <c r="T11" t="n">
-        <v>3997.998984415651</v>
+        <v>3704.350194662966</v>
       </c>
       <c r="U11" t="n">
-        <v>3738.776681732667</v>
+        <v>3704.350194662966</v>
       </c>
       <c r="V11" t="n">
-        <v>3738.776681732667</v>
+        <v>3341.733244596793</v>
       </c>
       <c r="W11" t="n">
-        <v>3333.921227143701</v>
+        <v>2936.877790007826</v>
       </c>
       <c r="X11" t="n">
-        <v>2914.778763723012</v>
+        <v>2517.735326587137</v>
       </c>
       <c r="Y11" t="n">
-        <v>2506.492640022665</v>
+        <v>2504.815944814387</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.1317246796058</v>
+        <v>586.3331309034146</v>
       </c>
       <c r="C12" t="n">
-        <v>479.6752635162481</v>
+        <v>479.8766697400569</v>
       </c>
       <c r="D12" t="n">
-        <v>384.5849746628014</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>290.4645599897551</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>207.0807216059167</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>121.6956318721005</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>79.95997968831301</v>
+        <v>80.16138591212182</v>
       </c>
       <c r="I12" t="n">
-        <v>106.0236528487706</v>
+        <v>80.16138591212182</v>
       </c>
       <c r="J12" t="n">
-        <v>106.0236528487706</v>
+        <v>404.7197108783342</v>
       </c>
       <c r="K12" t="n">
-        <v>106.0236528487706</v>
+        <v>404.7197108783342</v>
       </c>
       <c r="L12" t="n">
-        <v>106.0236528487706</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="M12" t="n">
-        <v>753.6949925242483</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="N12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="O12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="P12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="Q12" t="n">
-        <v>1743.199741167122</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.199741167122</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.744303615505</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.565659946107</v>
+        <v>1549.767066169915</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.229112946075</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.111595008074</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.7888407412681</v>
+        <v>988.9902469650769</v>
       </c>
       <c r="X12" t="n">
-        <v>833.9214049801482</v>
+        <v>834.122811203957</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.4356257593689</v>
+        <v>707.6370319831777</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.6951858079292</v>
+        <v>904.6816045002012</v>
       </c>
       <c r="C13" t="n">
-        <v>776.1334742911541</v>
+        <v>732.1198929834261</v>
       </c>
       <c r="D13" t="n">
-        <v>610.2554814926768</v>
+        <v>732.1198929834261</v>
       </c>
       <c r="E13" t="n">
-        <v>440.4974777434141</v>
+        <v>562.3618892341634</v>
       </c>
       <c r="F13" t="n">
-        <v>263.7904237051703</v>
+        <v>385.6548351959196</v>
       </c>
       <c r="G13" t="n">
-        <v>98.19914873099783</v>
+        <v>220.0635602217473</v>
       </c>
       <c r="H13" t="n">
-        <v>79.95997968831301</v>
+        <v>80.16138591212182</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95997968831301</v>
+        <v>80.16138591212182</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5396648530029</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>441.2981194241385</v>
+        <v>441.4995256479472</v>
       </c>
       <c r="L13" t="n">
-        <v>859.5080011920995</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.991868373013</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.250671530657</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2180.919920756438</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.42681472678</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2696.619589591113</v>
+        <v>2537.579627112918</v>
       </c>
       <c r="T13" t="n">
-        <v>2450.740143169568</v>
+        <v>2406.72656186184</v>
       </c>
       <c r="U13" t="n">
-        <v>2172.307142422673</v>
+        <v>2128.293561114946</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.351634293104</v>
+        <v>1841.338052985376</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.325229879396</v>
+        <v>1569.311648571668</v>
       </c>
       <c r="X13" t="n">
-        <v>1367.933475212808</v>
+        <v>1323.91989390508</v>
       </c>
       <c r="Y13" t="n">
-        <v>1140.513804526916</v>
+        <v>1096.500223219188</v>
       </c>
     </row>
     <row r="14">
@@ -5273,34 +5273,34 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057299</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008509</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V16" t="n">
-        <v>1978.073275058211</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W16" t="n">
-        <v>1706.046870644502</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.655115977915</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y16" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,28 +5501,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5543,22 +5543,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573036</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562606</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577833</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085205</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702768</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1978.073275058211</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W19" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.655115977915</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5756,10 +5756,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,10 +5777,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.416826573035</v>
+        <v>970.9960463903985</v>
       </c>
       <c r="C22" t="n">
-        <v>868.8551150562605</v>
+        <v>798.4343348736235</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577832</v>
+        <v>632.5563420751462</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354727</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066064</v>
+        <v>463.5989800066083</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745675</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955481</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113125</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338907</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752036</v>
+        <v>2473.041003752037</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005141</v>
+        <v>2194.608003005142</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.652494875571</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W22" t="n">
-        <v>1706.046870644502</v>
+        <v>1635.626090461864</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.655115977914</v>
+        <v>1390.234335795277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1233.235445292023</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
         <v>614.3171730324584</v>
@@ -6148,10 +6148,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,22 +6172,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709357</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962462</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832893</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419184</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.995166752597</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6227,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L27" t="n">
         <v>1107.588885023173</v>
@@ -6361,13 +6361,13 @@
         <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405614</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420841</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928213</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
         <v>407.7542895545774</v>
@@ -6412,22 +6412,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018976</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376324</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
         <v>391.8077842004234</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238764</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856326</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6625,7 +6625,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6777,7 +6777,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
         <v>1107.588885023173</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.598126712565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.461159053413</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.144059203198</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.7342746038963</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1215786533567</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.786524317312</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.936540552482</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.116207122788</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4390.426081956184</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4936.924867914779</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.078932667835</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5022.884703843162</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.275121707691</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.510464016199</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.351158941516</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.268530914839</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.440052205982</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.2933236446495</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8368624812918</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8572308371442</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1852518138143</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7435767800266</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0830039451919</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.5972247244126</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.3293907728373</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>778.2253242475524</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>612.8049764405652</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5046176827926</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.2552086360389</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.149801674206</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.3567941015011</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>883.0152137256214</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.947618762694</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.654959776498</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.72817868494</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.369491405432</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.369491405432</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.05027961559</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2449.628478185536</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2171.653122430131</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.155259292052</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.586499869833</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.652390194736</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.690364500334</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.598126712565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.461159053413</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.7342746038967</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1215786533567</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.786524317312</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.936540552483</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.116207122789</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4390.426081956185</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4936.924867914779</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.078932667836</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5022.884703843162</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.275121707691</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.510464016198</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.351158941515</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.268530914839</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.440052205983</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.2933236446495</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8368624812918</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8572308371442</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1852518138143</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.7435767800266</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0830039451919</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.5972247244126</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.3293907728373</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>778.2253242475524</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>612.8049764405653</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5046176827926</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>267.255208636039</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1498016742061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.3567941015012</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.0152137256217</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.947618762694</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.654959776498</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.772746858439</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.728178684941</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.369491405432</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.369491405432</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.05027961559</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.628478185536</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.653122430131</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.155259292052</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.586499869833</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.652390194736</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.690364500334</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.598126712566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.461159053415</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.1440592032</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.7342746038971</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1215786533567</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.786524317312</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.936540552483</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.116207122789</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4390.426081956185</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4936.924867914779</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.078932667836</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5022.884703843163</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.275121707692</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.510464016199</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.351158941516</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.440052205984</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.2933236446495</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8368624812918</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8572308371442</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1852518138143</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.7435767800266</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.188562037826</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0830039451919</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.5972247244126</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.3293907728373</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C46" t="n">
-        <v>778.2253242475524</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D46" t="n">
-        <v>612.8049764405653</v>
+        <v>473.3149733731396</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5046176827926</v>
+        <v>303.5569696238769</v>
       </c>
       <c r="F46" t="n">
-        <v>267.2552086360389</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1498016742061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.3567941015012</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.0152137256217</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.947618762694</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.654959776498</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.772746858439</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.728178684941</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.369491405433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.369491405433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2563.585767694919</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2318.163966264865</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2171.653122430131</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.155259292052</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.586499869833</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.652390194736</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.690364500334</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>565.7897837222291</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934025886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.19265511259509</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>999.4997461039126</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="M11" t="n">
-        <v>999.4997461039125</v>
+        <v>123.5788425003207</v>
       </c>
       <c r="N11" t="n">
-        <v>999.4997461039129</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>959.1159179785022</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="M12" t="n">
-        <v>654.2134744196744</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>999.4997461039127</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,16 +10124,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>507.1059092967421</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10659,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143132</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143141</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11136,7 +11136,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>136.5151679143141</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>135.4905818659019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>391.4130745083209</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>113.876117358762</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.81509302669016e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>248.5691704774788</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665255</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>69.71657238081414</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>120.4463752142684</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>69.71657238081286</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627333</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>120.4463752142717</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.050084024954</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.32028119149618</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.7505745401066</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.1498668014648</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.050084024954</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.32028119149618</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.7505745401066</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1498668014642</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H46" t="n">
-        <v>138.050084024954</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.32028119149618</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.75057454010659</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.149866801464</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>739916.5420249894</v>
+        <v>751379.3249414903</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>739916.5420249894</v>
+        <v>757376.6449057236</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>739916.5420249894</v>
+        <v>757376.6449057236</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651665.1266745782</v>
+        <v>652815.0110885596</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778986.9716365285</v>
+        <v>778986.9716365284</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778986.9716365281</v>
+        <v>778986.9716365284</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779227.9629890686</v>
+        <v>778986.9716365284</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779227.9629890686</v>
+        <v>778986.9716365284</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779227.9629890686</v>
+        <v>778986.9716365284</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>241266.2939506838</v>
       </c>
       <c r="E2" t="n">
-        <v>198335.3086294461</v>
+        <v>198685.2777635918</v>
       </c>
       <c r="F2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="G2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="H2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="I2" t="n">
         <v>237085.9128618085</v>
       </c>
-      <c r="G2" t="n">
-        <v>237085.9128618085</v>
-      </c>
-      <c r="H2" t="n">
-        <v>237085.9128618085</v>
-      </c>
-      <c r="I2" t="n">
-        <v>237085.9128618084</v>
-      </c>
       <c r="J2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="K2" t="n">
         <v>237085.9128618085</v>
@@ -26347,13 +26347,13 @@
         <v>237085.9128618085</v>
       </c>
       <c r="N2" t="n">
-        <v>237202.569239857</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="O2" t="n">
-        <v>237202.569239857</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="P2" t="n">
-        <v>237202.569239857</v>
+        <v>237085.9128618085</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087939</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171743.2266455763</v>
+        <v>99874.97317730813</v>
       </c>
       <c r="F3" t="n">
-        <v>79872.20474064785</v>
+        <v>79150.85324460993</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>152792.9007051288</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773504</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143343.1098506393</v>
+        <v>83359.26563805068</v>
       </c>
       <c r="N3" t="n">
-        <v>68212.12920465092</v>
+        <v>67659.41322128728</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>187011.9732966034</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>79370.99836319934</v>
+        <v>79511.05108384395</v>
       </c>
       <c r="F4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="G4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="G4" t="n">
-        <v>94878.44464875291</v>
-      </c>
       <c r="H4" t="n">
-        <v>94878.44464875292</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26442,22 +26442,22 @@
         <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94878.44464875292</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="N4" t="n">
-        <v>95237.61453644582</v>
-      </c>
-      <c r="O4" t="n">
-        <v>95237.61453644584</v>
-      </c>
       <c r="P4" t="n">
-        <v>95237.61453644584</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.1279802779</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60769.58456311789</v>
+        <v>60922.65329321258</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,22 +26494,22 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="N5" t="n">
-        <v>77650.48879577278</v>
-      </c>
       <c r="O5" t="n">
-        <v>77650.48879577279</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77650.48879577279</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172442.9142834664</v>
+        <v>-210581.4233349914</v>
       </c>
       <c r="C6" t="n">
-        <v>-30251.61362375647</v>
+        <v>-33825.96551641067</v>
       </c>
       <c r="D6" t="n">
-        <v>-30251.6136237565</v>
+        <v>-6835.765877516926</v>
       </c>
       <c r="E6" t="n">
-        <v>-113548.5009424474</v>
+        <v>-41859.96099181227</v>
       </c>
       <c r="F6" t="n">
-        <v>-15382.97513338475</v>
+        <v>-14684.84797672939</v>
       </c>
       <c r="G6" t="n">
-        <v>64489.22960726306</v>
+        <v>64466.0052678805</v>
       </c>
       <c r="H6" t="n">
-        <v>64489.22960726309</v>
+        <v>64466.00526788053</v>
       </c>
       <c r="I6" t="n">
-        <v>64489.22960726303</v>
+        <v>64466.00526788047</v>
       </c>
       <c r="J6" t="n">
-        <v>-46525.23573772705</v>
+        <v>-88326.89543724827</v>
       </c>
       <c r="K6" t="n">
-        <v>64489.22960726311</v>
+        <v>42964.78587014542</v>
       </c>
       <c r="L6" t="n">
-        <v>64489.22960726311</v>
+        <v>64466.00526788047</v>
       </c>
       <c r="M6" t="n">
-        <v>-78853.88024337619</v>
+        <v>-18893.26037017019</v>
       </c>
       <c r="N6" t="n">
-        <v>-3897.663297012507</v>
+        <v>-3193.407953406849</v>
       </c>
       <c r="O6" t="n">
-        <v>64314.46590763837</v>
+        <v>64466.00526788046</v>
       </c>
       <c r="P6" t="n">
-        <v>64314.46590763837</v>
+        <v>64466.00526788046</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>999.4997461039127</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223361</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.2038885838083</v>
+        <v>334.5021172936657</v>
       </c>
       <c r="F4" t="n">
-        <v>278.7607572808326</v>
+        <v>276.2431794832229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223339</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838081</v>
+        <v>334.5021172936657</v>
       </c>
       <c r="N4" t="n">
-        <v>277.0199870630463</v>
+        <v>276.2431794832227</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223361</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838083</v>
+        <v>334.5021172936657</v>
       </c>
       <c r="N4" t="n">
-        <v>278.7607572808326</v>
+        <v>276.2431794832229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>291.4386401486541</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>392.6220876429559</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.88420416844608</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>78.13515846266802</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>147.2153150401801</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>163.041863104196</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.0005120768509</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>336.6929326543899</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.17333469697797</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-2.556569233283702e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.732907316589262e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4530685415752382</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4530685415752382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4530685415752407</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>565.7897837222291</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756233</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934025886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.19265511259509</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>999.4997461039126</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="M11" t="n">
-        <v>999.4997461039125</v>
+        <v>123.5788425003207</v>
       </c>
       <c r="N11" t="n">
-        <v>999.4997461039129</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>959.1159179785022</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="M12" t="n">
-        <v>654.2134744196744</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>999.4997461039127</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35723,7 +35723,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>661.3192390158824</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908388</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960979</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36437,22 +36437,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36516,25 +36516,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36613,10 +36613,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>507.1059092967421</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,16 +37543,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143132</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.90729598065589</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9868610376718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1791323371758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3614010928698</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143141</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37856,7 +37856,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.9072959806559</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9868610376718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8872925496167</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.578186906134</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1791323371758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3614010928695</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>136.5151679143141</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.9072959806559</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9868610376718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8872925496167</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.578186906134</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1791323371758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.36140109287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
